--- a/data/trans_dic/P32-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P32-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P32-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P32-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,99%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,13%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,34%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,51%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,86%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,33%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,69%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,65%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,1%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,09%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>1,6; 5,07</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>3,96; 8,73</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
+          <t>3,14; 8,5</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,61</t>
+          <t>4,85; 11,21</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,16</t>
+          <t>0,0; 6,47</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,9</t>
+          <t>0,0; 3,61</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,5</t>
+          <t>0,0; 3,54</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,55</t>
+          <t>0,0; 4,29</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>1,64; 4,6</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>3,33; 6,64</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>2,61; 6,35</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>3,99; 8,99</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,81%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,23%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,04%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,67%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,7%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,32%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,63%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,45%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,44%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,6%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,52%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,4%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>1,97; 3,95</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>5,68; 8,9</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>3,96; 6,44</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>4,23; 7,9</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>0,74; 3,04</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>1,32; 4,01</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>2,35; 5,37</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>1,27; 4,51</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>1,75; 3,33</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>4,55; 6,75</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>3,56; 5,55</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>3,12; 5,73</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,19%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,02%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,79%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,44%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,53%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,57%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,47%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,93%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,6%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,62%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,8%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,37%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>0,88; 4,86</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,63</t>
+          <t>3,37; 9,52</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,55</t>
+          <t>3,64; 8,98</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,55</t>
+          <t>4,18; 9,44</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,03</t>
+          <t>0,0; 2,46</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,95</t>
+          <t>0,8; 6,09</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,72</t>
+          <t>1,78; 6,8</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>1,96; 7,88</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>0,67; 3,16</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>2,83; 6,97</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>3,34; 6,82</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>3,72; 7,53</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,74%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,76%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,24%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,13%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,16%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,26%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,75%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,33%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,2%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,52%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,84%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>2,08; 3,61</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>5,64; 7,99</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>4,31; 6,41</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>4,99; 7,63</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>0,8; 2,49</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>1,31; 3,41</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>2,36; 4,45</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>1,7; 4,33</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>1,8; 2,94</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>4,38; 6,07</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>3,76; 5,34</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>3,92; 5,92</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P32-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P32-Estudios-trans_dic.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7,51%</t>
+          <t>7,79%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,21%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>6,09%</t>
+          <t>6,38%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,85; 11,21</t>
+          <t>4,94; 11,66</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,29</t>
+          <t>0,0; 4,47</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,99; 8,99</t>
+          <t>4,21; 9,65</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,67%</t>
+          <t>5,75%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>2,45%</t>
+          <t>2,04%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>4,4%</t>
+          <t>4,2%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,23; 7,9</t>
+          <t>4,32; 8,24</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,27; 4,51</t>
+          <t>0,7; 3,89</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,12; 5,73</t>
+          <t>2,64; 5,59</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,44%</t>
+          <t>6,41%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>3,93%</t>
+          <t>3,72%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>5,37%</t>
+          <t>5,29%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,18; 9,44</t>
+          <t>4,12; 9,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,96; 7,88</t>
+          <t>1,89; 7,75</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,72; 7,53</t>
+          <t>3,66; 7,41</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,13%</t>
+          <t>6,21%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>2,75%</t>
+          <t>2,4%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>4,84%</t>
+          <t>4,71%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,99; 7,63</t>
+          <t>5,05; 7,81</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,7; 4,33</t>
+          <t>1,2; 3,7</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,92; 5,92</t>
+          <t>3,49; 5,81</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P32-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P32-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,6; 5,07</t>
+          <t>1,64; 4,79</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,96; 8,73</t>
+          <t>4,35; 9,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,14; 8,5</t>
+          <t>3,28; 8,31</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,94; 11,66</t>
+          <t>5,21; 12,26</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,47</t>
+          <t>0,0; 6,64</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,61</t>
+          <t>0,43; 3,6</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,54</t>
+          <t>0,0; 4,47</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,47</t>
+          <t>0,0; 3,87</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,64; 4,6</t>
+          <t>1,61; 4,49</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>3,33; 6,64</t>
+          <t>3,16; 6,66</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,61; 6,35</t>
+          <t>2,45; 6,33</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>4,21; 9,65</t>
+          <t>4,32; 9,74</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,97; 3,95</t>
+          <t>1,86; 3,81</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,68; 8,9</t>
+          <t>5,82; 8,81</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,96; 6,44</t>
+          <t>3,88; 6,4</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,32; 8,24</t>
+          <t>4,2; 8,03</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,74; 3,04</t>
+          <t>0,8; 3,06</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,32; 4,01</t>
+          <t>1,29; 4,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,35; 5,37</t>
+          <t>2,33; 5,15</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,7; 3,89</t>
+          <t>0,79; 3,67</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,75; 3,33</t>
+          <t>1,79; 3,3</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,55; 6,75</t>
+          <t>4,51; 6,78</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,56; 5,55</t>
+          <t>3,68; 5,74</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,64; 5,59</t>
+          <t>2,55; 5,48</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,88; 4,86</t>
+          <t>0,75; 4,42</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,37; 9,52</t>
+          <t>3,62; 9,7</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,64; 8,98</t>
+          <t>3,61; 8,97</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,12; 9,35</t>
+          <t>4,11; 9,45</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,46</t>
+          <t>0,0; 2,67</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,8; 6,09</t>
+          <t>0,8; 6,51</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,78; 6,8</t>
+          <t>1,51; 6,83</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,89; 7,75</t>
+          <t>1,82; 7,21</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,67; 3,16</t>
+          <t>0,73; 3,21</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,83; 6,97</t>
+          <t>2,79; 7,05</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,34; 6,82</t>
+          <t>3,31; 6,75</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,66; 7,41</t>
+          <t>3,8; 7,73</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,08; 3,61</t>
+          <t>2,08; 3,7</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,64; 7,99</t>
+          <t>5,66; 8,05</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,31; 6,41</t>
+          <t>4,33; 6,44</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,05; 7,81</t>
+          <t>4,87; 7,67</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,8; 2,49</t>
+          <t>0,78; 2,54</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,31; 3,41</t>
+          <t>1,36; 3,34</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,36; 4,45</t>
+          <t>2,31; 4,38</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,2; 3,7</t>
+          <t>1,09; 3,56</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,8; 2,94</t>
+          <t>1,81; 2,96</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>4,38; 6,07</t>
+          <t>4,39; 6,13</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>3,76; 5,34</t>
+          <t>3,82; 5,36</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,49; 5,81</t>
+          <t>3,52; 5,79</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que piensa que debería beber menos</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>14078</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>31383</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>19066</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>19005</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>3115</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>3057</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>1104</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>854</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>17193</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>34439</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>20170</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>19859</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>7719; 22544</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>22246; 46042</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>11705; 29680</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>12701; 29919</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 11117</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>982; 8259</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6049</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2606</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>10250; 28662</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>23442; 49315</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>12051; 31154</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>13455; 30305</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>29732</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>86611</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>63191</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>56661</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>9093</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>13874</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>26395</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>14472</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>38825</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>100485</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>89586</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>71132</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>19674; 40386</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>69621; 105466</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>48641; 80174</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>41345; 79135</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>4274; 16359</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>7697; 23867</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>16941; 37459</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>5569; 25969</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>28556; 52595</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>81005; 121671</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>72905; 113740</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>43139; 92842</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>7680</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>19648</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>21982</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>22069</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>1030</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>5776</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>9801</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>9161</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>8710</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>25424</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>31783</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>31231</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2614; 15509</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>11817; 31656</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>13703; 34018</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>14165; 32532</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5150</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1797; 14626</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>4265; 19287</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>4470; 17750</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>3961; 17471</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>15393; 38833</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>21876; 44650</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>22463; 45640</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>51489</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>137642</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>104239</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>97735</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>13239</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>22706</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>37300</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>24487</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>64728</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>160348</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>141539</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>122222</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>39191; 69535</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>115136; 163765</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>86101; 128036</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>76584; 120680</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>6959; 22689</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>14266; 35088</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>26470; 50088</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>11159; 36355</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>50238; 82102</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>135448; 189165</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>119857; 168065</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>91466; 150336</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>